--- a/chapter 05 쿠팡 크롤링/쿠팡 크롤링 결과/None_hyperlink.xlsx
+++ b/chapter 05 쿠팡 크롤링/쿠팡 크롤링 결과/None_hyperlink.xlsx
@@ -494,24 +494,19 @@
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>아망떼</t>
-        </is>
-      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>아망떼 이불속통 NONE 한파용</t>
+          <t>ALTERNATIVE STEREO 밀크 래쉬 마스카라 2호 빈티지 플럼</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>44,720원</t>
+          <t>21,500원</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/2299649493?itemId=3961597612&amp;vendorItemId=71945996441</t>
+          <t>https://www.coupang.com//vp/products/6805211214?itemId=16080616869&amp;vendorItemId=83279015219</t>
         </is>
       </c>
     </row>
@@ -519,19 +514,24 @@
       <c r="A4" t="n">
         <v>3</v>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>아망떼</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ALTERNATIVE STEREO 밀크 래쉬 마스카라 2호 빈티지 플럼</t>
+          <t>아망떼 이불속통 NONE 한파용</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>24,700원</t>
+          <t>44,220원</t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/6805211214?itemId=16080616869&amp;vendorItemId=83279015219</t>
+          <t>https://www.coupang.com//vp/products/2299649493?itemId=3961597612&amp;vendorItemId=71945996441</t>
         </is>
       </c>
     </row>
@@ -541,17 +541,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>잠뱅이 NC10 여성)스판 데님셔츠 AM3DDH551</t>
+          <t>KLAIRS 일루미네이팅 서플 블레미쉬 크림</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>71,200원</t>
+          <t>20,200원</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/6839879171?itemId=16261701314&amp;vendorItemId=83458727506</t>
+          <t>https://www.coupang.com//vp/products/6754299448?itemId=15808057636&amp;vendorItemId=83278499106</t>
         </is>
       </c>
     </row>
@@ -561,17 +561,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>세리아 NC05 라운드 티셔츠 214505</t>
+          <t>DR.ALTHEA 디어에이(Dear.A) 퍼펙트 커버 컨실러 팔레트 Dear.A PERFECT COVER CONCEALER PALETTE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>39,000원</t>
+          <t>23,600원</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/6169540006?itemId=12031976256&amp;vendorItemId=81631903607</t>
+          <t>https://www.coupang.com//vp/products/6805114527?itemId=16079999496&amp;vendorItemId=83278528273</t>
         </is>
       </c>
     </row>
@@ -579,19 +579,24 @@
       <c r="A7" t="n">
         <v>6</v>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>코스알엑스</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>KLAIRS 일루미네이팅 서플 블레미쉬 크림</t>
+          <t>코스알엑스 [코스알엑스]리프레쉬 아하바하비타민씨 데일리 토너</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>20,300원</t>
+          <t>18,700원</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/6754299448?itemId=15808057636&amp;vendorItemId=83817023293</t>
+          <t>https://www.coupang.com//vp/products/5449959849?itemId=8314060497&amp;vendorItemId=75601932355</t>
         </is>
       </c>
     </row>
@@ -601,17 +606,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DR.ALTHEA 디어에이(Dear.A) 퍼펙트 커버 컨실러 팔레트 Dear.A PERFECT COVER CONCEALER PALETTE</t>
+          <t>The Hueys : None the Number</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>23,600원</t>
+          <t>12,240원</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/6805114527?itemId=16079999496&amp;vendorItemId=83278528273</t>
+          <t>https://www.coupang.com//vp/products/4991263373?itemId=6659653591&amp;vendorItemId=73953426447</t>
         </is>
       </c>
     </row>
@@ -621,17 +626,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DR.JART 더메이크업 리쥬비네이팅 뷰티밤 01 라이트</t>
+          <t>NONE 미니어처 마이크 미니 악기 복제 모델 액션 피규어 인형 집 액세서리 디스플레이 장식품</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>38,400원</t>
+          <t>14,630원</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/6805106150?itemId=16079948026&amp;vendorItemId=83278489913</t>
+          <t>https://www.coupang.com//vp/products/6372499183?itemId=13504303256&amp;vendorItemId=82790621665</t>
         </is>
       </c>
     </row>
@@ -641,17 +646,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>B044 CRYSTAL GLASS</t>
+          <t>Liberty for None and Injustice for All</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>25,760원</t>
+          <t>21,260원</t>
         </is>
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/5924219561?itemId=10508995734&amp;vendorItemId=79669118769</t>
+          <t>https://www.coupang.com//vp/products/30575077?itemId=116407124&amp;vendorItemId=3234504907</t>
         </is>
       </c>
     </row>
@@ -661,17 +666,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NONE 미니어처 마이크 미니 악기 복제 모델 액션 피규어 인형 집 액세서리 디스플레이 장식품</t>
+          <t>SKIN79 인텐스 클래식 밤 SPF35 PA++ 43.5g</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>14,630원</t>
+          <t>18,600원</t>
         </is>
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/6372499183?itemId=13504303256&amp;vendorItemId=82790621665</t>
+          <t>https://www.coupang.com//vp/products/6805099234?itemId=16079906452&amp;vendorItemId=83278456288</t>
         </is>
       </c>
     </row>
@@ -679,24 +684,19 @@
       <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>코스알엑스</t>
-        </is>
-      </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>코스알엑스 [코스알엑스]리프레쉬 아하바하비타민씨 데일리 토너</t>
+          <t>None So Fit to Break the Chains: Marx's Ethics of Self-Emancipation Paperback</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>18,700원</t>
+          <t>31,600원</t>
         </is>
       </c>
       <c r="E12" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/5449959849?itemId=8314060497&amp;vendorItemId=75601932355</t>
+          <t>https://www.coupang.com//vp/products/1948133249?itemId=3308144302&amp;vendorItemId=71295044836</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DR.JART 더메이크업 리쥬비네이팅 뷰티밤 02 미디엄</t>
+          <t>MAN WITH FLOWERS 에너지팩토리 스킨 핏 맨즈 밤 밝은피부용</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>38,400원</t>
+          <t>31,000원</t>
         </is>
       </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/6805110579?itemId=16079976232&amp;vendorItemId=83278511241</t>
+          <t>https://www.coupang.com//vp/products/6805504498?itemId=16082594676&amp;vendorItemId=83278393956</t>
         </is>
       </c>
     </row>
@@ -726,17 +726,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Liberty for None and Injustice for All</t>
+          <t>(영문도서) And Then There Were None Paperback</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>21,260원</t>
+          <t>13,300원</t>
         </is>
       </c>
       <c r="E14" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/30575077?itemId=116407124&amp;vendorItemId=3234504907</t>
+          <t>https://www.coupang.com//vp/products/5635017320?itemId=9176178947&amp;vendorItemId=76462065561</t>
         </is>
       </c>
     </row>
@@ -744,24 +744,19 @@
       <c r="A15" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>클라이드앤</t>
-        </is>
-      </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>클라이드앤 FMATS600F 레터링맨투맨티셔츠</t>
+          <t>BLACKMONSTER 이레이징 펜 앰버베이지 (리뉴얼) black erasing pen</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>18,330원</t>
+          <t>19,400원</t>
         </is>
       </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/6285373108?itemId=12925564102&amp;vendorItemId=80190108694</t>
+          <t>https://www.coupang.com//vp/products/6805090133?itemId=16079850153&amp;vendorItemId=83278414384</t>
         </is>
       </c>
     </row>
@@ -771,7 +766,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>늘어나는 요술 장바구니 소형 라지 휴대용 미니 시장바구니 플리츠 주름 가방 데일리백 쇼퍼백 숄더백 에코백 접이식 어린이 귀여운 일본</t>
+          <t>늘어나는 요술 장바구니 소형 라지 휴대용 미니 시장바구니 플리츠 주름 가방</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -791,17 +786,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SKIN79 인텐스 클래식 밤 SPF35 PA++ 43.5g</t>
+          <t>Hanna Marcus - Black Hole Heaven US수입반</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>18,000원</t>
+          <t>17,700원</t>
         </is>
       </c>
       <c r="E17" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/6805099234?itemId=16079906452&amp;vendorItemId=83278456288</t>
+          <t>https://www.coupang.com//vp/products/112896897?itemId=339387050&amp;vendorItemId=80178364935</t>
         </is>
       </c>
     </row>
@@ -811,17 +806,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>MAN WITH FLOWERS 에너지팩토리 스킨 핏 맨즈 밤 밝은피부용</t>
+          <t>None the Number</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>31,000원</t>
+          <t>9,520원</t>
         </is>
       </c>
       <c r="E18" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/6805504498?itemId=16082594676&amp;vendorItemId=83278393956</t>
+          <t>https://www.coupang.com//vp/products/48446405?itemId=369937742&amp;vendorItemId=3897557920</t>
         </is>
       </c>
     </row>
@@ -831,17 +826,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ORIGINAL SMALL LOGO 2PACK-NONE</t>
+          <t>Royalways 삼성 TV 리모컨 4K UHD BN59-01259B BN59-01260A BN59-01292A BN59-01259D 용 범용 원격 교체</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>28,900원</t>
+          <t>10,160원</t>
         </is>
       </c>
       <c r="E19" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/6504201753?itemId=14335126135&amp;vendorItemId=81579702191</t>
+          <t>https://www.coupang.com//vp/products/1773621939?itemId=3019854818&amp;vendorItemId=71008009227</t>
         </is>
       </c>
     </row>
@@ -851,17 +846,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>(영문도서) And Then There Were None Paperback</t>
+          <t>핀덱스 RED GUMMY-BEAR 핀 뱃지</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>13,300원</t>
+          <t>12,000원</t>
         </is>
       </c>
       <c r="E20" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/5635017320?itemId=9176178947&amp;vendorItemId=76462065561</t>
+          <t>https://www.coupang.com//vp/products/4590513065?itemId=5643450537&amp;vendorItemId=72818336159</t>
         </is>
       </c>
     </row>
@@ -871,17 +866,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[가방팝] 써드위브 KIDNEY WAIST BAG / BLACK 키드니 힙색</t>
+          <t>Honor Few Fear None: The Life and Times of a Mongol</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>20,300원</t>
+          <t>12,590원</t>
         </is>
       </c>
       <c r="E21" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/6438133611?itemId=13923797864&amp;vendorItemId=82813541907</t>
+          <t>https://www.coupang.com//vp/products/19707852?itemId=78532090&amp;vendorItemId=3132584817</t>
         </is>
       </c>
     </row>
@@ -891,17 +886,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>브이넥 니트 가디건</t>
+          <t>[윙크핑크] 블랙블루 래쉬가드 (2종) RG008</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>15,900원</t>
+          <t>21,900원</t>
         </is>
       </c>
       <c r="E22" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/6314824290?itemId=13127673714&amp;vendorItemId=80386620632</t>
+          <t>https://www.coupang.com//vp/products/20112789?itemId=79930499&amp;vendorItemId=3135555690</t>
         </is>
       </c>
     </row>
@@ -911,17 +906,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>BLACKMONSTER 이레이징 펜 앰버베이지 (리뉴얼) black erasing pen</t>
+          <t>Scene Is Now - Oily Years 1983-1993 미국수입반</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>21,800원</t>
+          <t>6,040원</t>
         </is>
       </c>
       <c r="E23" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/6805090133?itemId=16079850153&amp;vendorItemId=83278414384</t>
+          <t>https://www.coupang.com//vp/products/113145803?itemId=339899329&amp;vendorItemId=3834261666</t>
         </is>
       </c>
     </row>
@@ -931,17 +926,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Hanna Marcus - Black Hole Heaven US수입반</t>
+          <t>None Braver: U.s. Air Force Pararescuemen In The War On Terrorism</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>17,700원</t>
+          <t>14,280원</t>
         </is>
       </c>
       <c r="E24" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/112896897?itemId=339387050&amp;vendorItemId=80178364935</t>
+          <t>https://www.coupang.com//vp/products/19678072?itemId=78499725&amp;vendorItemId=3132552658</t>
         </is>
       </c>
     </row>
@@ -951,17 +946,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>None the Number</t>
+          <t>The Story of the Little Mole Who Knew it was None of His Business 원서 &amp; 노부영 부록 CD</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>9,520원</t>
+          <t>11,050원</t>
         </is>
       </c>
       <c r="E25" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/48446405?itemId=369937742&amp;vendorItemId=3897557920</t>
+          <t>https://www.coupang.com//vp/products/90783400?itemId=283016666&amp;vendorItemId=3031528240</t>
         </is>
       </c>
     </row>
@@ -971,17 +966,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>[넷피엑스][에머슨기어]7 1/2 EMT용 컬러 가위 (코요테)</t>
+          <t>[CD] Dj Spooky - Subliminal Minded</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>11,800원</t>
+          <t>16,000원</t>
         </is>
       </c>
       <c r="E26" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/32601729?itemId=122812758&amp;vendorItemId=82354855125</t>
+          <t>https://www.coupang.com//vp/products/112508957?itemId=338397294&amp;vendorItemId=5627323106</t>
         </is>
       </c>
     </row>
@@ -991,17 +986,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>핀덱스 RED GUMMY-BEAR 핀 뱃지</t>
+          <t>None the Number:A Hueys Book</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>12,000원</t>
+          <t>5,860원</t>
         </is>
       </c>
       <c r="E27" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/4590513065?itemId=5643450537&amp;vendorItemId=72818336159</t>
+          <t>https://www.coupang.com//vp/products/58004408?itemId=201158013&amp;vendorItemId=3478304626</t>
         </is>
       </c>
     </row>
@@ -1011,17 +1006,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>[윙크핑크] 블랙블루 래쉬가드 (2종) RG008</t>
+          <t>The Blue Barn: None Paperback</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>21,900원</t>
+          <t>12,710원</t>
         </is>
       </c>
       <c r="E28" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/20112789?itemId=79930499&amp;vendorItemId=3135555690</t>
+          <t>https://www.coupang.com//vp/products/67998876?itemId=227105306&amp;vendorItemId=3586997295</t>
         </is>
       </c>
     </row>
@@ -1031,17 +1026,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Honor Few Fear None: The Life and Times of a Mongol</t>
+          <t>[윙크핑크] 모던 무드2 미디팬티 요일팬티 5종세트 MD017</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>12,590원</t>
+          <t>11,900원</t>
         </is>
       </c>
       <c r="E29" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/19707852?itemId=78532090&amp;vendorItemId=3132584817</t>
+          <t>https://www.coupang.com//vp/products/206804240?itemId=611062624&amp;vendorItemId=79358606298</t>
         </is>
       </c>
     </row>
@@ -1051,17 +1046,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>넷피엑스 전술 방한 바라클라바 코요테</t>
+          <t>A Study Guide for Agatha Christie's Ten Little Indians (Aka and Then There Were None) Paperback</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>13,090원</t>
+          <t>6,660원</t>
         </is>
       </c>
       <c r="E30" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/26569643?itemId=102809723&amp;vendorItemId=3195150774</t>
+          <t>https://www.coupang.com//vp/products/60070560?itemId=206536875&amp;vendorItemId=3585308366</t>
         </is>
       </c>
     </row>
@@ -1071,17 +1066,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>None Braver: U.s. Air Force Pararescuemen In The War On Terrorism</t>
+          <t>TBJ SH01 이너용 면 반팔티 3PACK T205TS900/00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>14,280원</t>
+          <t>9,790원</t>
         </is>
       </c>
       <c r="E31" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/19678072?itemId=78499725&amp;vendorItemId=3132552658</t>
+          <t>https://www.coupang.com//vp/products/6409118716?itemId=13736548517&amp;vendorItemId=81072733031</t>
         </is>
       </c>
     </row>
@@ -1091,17 +1086,15 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Scene Is Now - Oily Years 1983-1993 미국수입반</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>6,040원</t>
-        </is>
+          <t>DR.JART 더메이크업 리쥬비네이팅 뷰티밤 01 라이트</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
       </c>
       <c r="E32" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/113145803?itemId=339899329&amp;vendorItemId=3834261666</t>
+          <t>https://www.coupang.com//vp/products/6805106150?itemId=16079948026&amp;vendorItemId=83278489913</t>
         </is>
       </c>
     </row>
@@ -1111,17 +1104,15 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NC야탑 NBA NC09 블록후드공용티셔츠 N201TH020P</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>29,300원</t>
-        </is>
+          <t>DR.JART 더메이크업 리쥬비네이팅 뷰티밤 02 미디엄</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
       </c>
       <c r="E33" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/6817970051?itemId=16150311439&amp;vendorItemId=83346084396</t>
+          <t>https://www.coupang.com//vp/products/6805110579?itemId=16079976232&amp;vendorItemId=83278511241</t>
         </is>
       </c>
     </row>
@@ -1131,17 +1122,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>The Hueys : None the Number</t>
+          <t>파크랜드 NC15 마이크로 프린트 카라 티셔츠 ATL21321</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>12,240원</t>
+          <t>93,700원</t>
         </is>
       </c>
       <c r="E34" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/4991263373?itemId=6659653591&amp;vendorItemId=73953426447</t>
+          <t>https://www.coupang.com//vp/products/6063009170?itemId=11158019745&amp;vendorItemId=78660542295</t>
         </is>
       </c>
     </row>
@@ -1151,17 +1142,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>MILLET NC12 남녀공용 부드러운 플리스 자켓 MURFJ423</t>
+          <t>TBJ SH01 이너용 면 반팔티 3PACK T205TS900/00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>59,000원</t>
+          <t>9,790원</t>
         </is>
       </c>
       <c r="E35" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/6853874951?itemId=16337934201&amp;vendorItemId=83529822761</t>
+          <t>https://www.coupang.com//vp/products/6409118716?itemId=13736548517&amp;vendorItemId=81072733031</t>
         </is>
       </c>
     </row>
@@ -1171,17 +1162,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>NC야탑 NBA NC09 블록후드공용티셔츠 N201TH020P</t>
+          <t>엠할리데이 NC05 특양면 기모 후드 맨투맨 MM9TU959</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>29,300원</t>
+          <t>46,460원</t>
         </is>
       </c>
       <c r="E36" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/6817970051?itemId=16150311439&amp;vendorItemId=83346084396</t>
+          <t>https://www.coupang.com//vp/products/6824284862?itemId=16183837394&amp;vendorItemId=83390648409</t>
         </is>
       </c>
     </row>
@@ -1189,19 +1180,24 @@
       <c r="A37" t="n">
         <v>36</v>
       </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>닉스</t>
+        </is>
+      </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>TBJ SH01 이너용 면 반팔티 3PACK T205TS900/00</t>
+          <t>닉스 여) DM톤 워싱 인밴딩 크롭 보이프렌드 NPSDDB501IBD</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>9,790원</t>
+          <t>18,050원</t>
         </is>
       </c>
       <c r="E37" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/6409118716?itemId=13736548517&amp;vendorItemId=81072733031</t>
+          <t>https://www.coupang.com//vp/products/6567791890?itemId=14731360389&amp;vendorItemId=82016874375</t>
         </is>
       </c>
     </row>
@@ -1211,17 +1207,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>None the Number:A Hueys Book</t>
+          <t>무자크 DP03 라운드 어깨셔링 지그제그 니트 라운드 어깨셔링 지그제그 크롭 니트티 MM8WKT25</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>5,860원</t>
+          <t>24,500원</t>
         </is>
       </c>
       <c r="E38" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/58004408?itemId=201158013&amp;vendorItemId=3478304626</t>
+          <t>https://www.coupang.com//vp/products/6834394434?itemId=16233491526&amp;vendorItemId=83427651370</t>
         </is>
       </c>
     </row>
@@ -1231,17 +1227,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>신디 SH02 라글란 반팔 티셔츠 CDRP22S03</t>
+          <t>납 터미널 +10개 -10개 (20개)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>13,900원</t>
+          <t>24,100원</t>
         </is>
       </c>
       <c r="E39" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/6321963465?itemId=13180427011&amp;vendorItemId=80439813514</t>
+          <t>https://www.coupang.com//vp/products/5032289404?itemId=6759734610&amp;vendorItemId=74052583015</t>
         </is>
       </c>
     </row>
@@ -1251,17 +1247,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>레노마 SH04 호리젠탈 기모 셔츠 RLWSGP-501-PU</t>
+          <t>And Then There Were None:</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>32,480원</t>
+          <t>8,820원</t>
         </is>
       </c>
       <c r="E40" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/6300289919?itemId=13023098213&amp;vendorItemId=82817027342</t>
+          <t>https://www.coupang.com//vp/products/29719622?itemId=113547966&amp;vendorItemId=3030420160</t>
         </is>
       </c>
     </row>
@@ -1269,24 +1265,19 @@
       <c r="A41" t="n">
         <v>40</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>닉스</t>
-        </is>
-      </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>닉스 여) ML톤 워싱 인밴딩 크롭 보이프렌드 NPSDDB502IBM</t>
+          <t>리바이스 SH04 여성 스몰로고 반팔티셔츠 39185-0006</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>18,900원</t>
+          <t>28,420원</t>
         </is>
       </c>
       <c r="E41" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/6567929751?itemId=14732077185&amp;vendorItemId=82017029666</t>
+          <t>https://www.coupang.com//vp/products/6386314261?itemId=13592041819&amp;vendorItemId=80848014537</t>
         </is>
       </c>
     </row>
@@ -1296,17 +1287,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>지프 NC12 남녀공용 배색 포인트 래쉬가드 RGU102</t>
+          <t>GIORDANO NC10 면반팔3팩(화이트+화이트+화이트) 3801</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>23,600원</t>
+          <t>24,800원</t>
         </is>
       </c>
       <c r="E42" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/6734147871?itemId=15699854984&amp;vendorItemId=82915021153</t>
+          <t>https://www.coupang.com//vp/products/6558985106?itemId=14675452740&amp;vendorItemId=81916784746</t>
         </is>
       </c>
     </row>
@@ -1316,17 +1307,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>납 터미널 +10개 -10개 (20개)</t>
+          <t>Every Case in Which the Victim of Sexual Assault Was At Fault: There are none Paperback</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>24,100원</t>
+          <t>5,600원</t>
         </is>
       </c>
       <c r="E43" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/5032289404?itemId=6759734610&amp;vendorItemId=74052583015</t>
+          <t>https://www.coupang.com//vp/products/5044362256?itemId=6793666285&amp;vendorItemId=74086378745</t>
         </is>
       </c>
     </row>
@@ -1336,17 +1327,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>[CD] Daniel Lozakovich 차이코프스키: 바이올린 협주곡 오직 그리움을 아는 이만이 - 다니엘 로자코비치</t>
+          <t>The Accidental Courier: None Paperback</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>14,700원</t>
+          <t>9,530원</t>
         </is>
       </c>
       <c r="E44" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/320070399?itemId=1024070614&amp;vendorItemId=5465766686</t>
+          <t>https://www.coupang.com//vp/products/69814413?itemId=233747723&amp;vendorItemId=3600176328</t>
         </is>
       </c>
     </row>
@@ -1356,17 +1347,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>오스틴리드by파크랜드 SH04 긴팔 와이셔츠 슬림핏 드레스셔츠 ADL22951</t>
+          <t>후아유 SH02 기모 스티브 자수 맨투맨 WHMWC4901U</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>19,900원</t>
+          <t>39,900원</t>
         </is>
       </c>
       <c r="E45" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/6734426274?itemId=15700932053&amp;vendorItemId=82956524020</t>
+          <t>https://www.coupang.com//vp/products/6756696596?itemId=15821231842&amp;vendorItemId=83034054343</t>
         </is>
       </c>
     </row>
@@ -1376,17 +1367,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>브레이크 오일교환기 아답터 7번 - 회수용 (회수고무기본)</t>
+          <t>모텍스 또각이 라벨기 리필테이프</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>5,200원</t>
+          <t>1,100원</t>
         </is>
       </c>
       <c r="E46" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/4938051566?itemId=6501377989&amp;vendorItemId=73795595358</t>
+          <t>https://www.coupang.com//vp/products/25231586?itemId=98060635&amp;vendorItemId=71398924674</t>
         </is>
       </c>
     </row>
@@ -1396,17 +1387,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>리바이스 SH04 여성 스몰로고 반팔티셔츠 39185-0006</t>
+          <t>알토 SH01 뉴매직 슬림핏 팬츠(블랙) ALTS22WG5</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>28,420원</t>
+          <t>31,920원</t>
         </is>
       </c>
       <c r="E47" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/6386314261?itemId=13592041819&amp;vendorItemId=80848014537</t>
+          <t>https://www.coupang.com//vp/products/6718004595?itemId=15617965392&amp;vendorItemId=83233203244</t>
         </is>
       </c>
     </row>
@@ -1416,17 +1407,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>엠할리데이 NC05 특양면 기모 후드 맨투맨 MM9TU959</t>
+          <t>All for Me and None for All Paperback 2016년 04월 12일 출판</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>46,460원</t>
+          <t>5,860원</t>
         </is>
       </c>
       <c r="E48" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/6824284862?itemId=16183837394&amp;vendorItemId=83390648409</t>
+          <t>https://www.coupang.com//vp/products/61211203?itemId=209902200&amp;vendorItemId=3497802392</t>
         </is>
       </c>
     </row>
@@ -1436,17 +1427,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>씨씨콜렉트 NC12 터들 슬림 티셔츠 C214PSM058</t>
+          <t>None Dare Call Iit Treason Book 11: Treasonour Trade with and Aid to the Enemies of Freedom! Paperback</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>35,600원</t>
+          <t>5,130원</t>
         </is>
       </c>
       <c r="E49" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/6763652276?itemId=15858252567&amp;vendorItemId=83068478461</t>
+          <t>https://www.coupang.com//vp/products/58989702?itemId=204158095&amp;vendorItemId=3600991777</t>
         </is>
       </c>
     </row>
@@ -1456,17 +1447,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>NONE 롱 코튼벨트 (남녀공용 꼬리벨트)</t>
+          <t>모텍스 또각이 리필테이프 라벨기 이니셜테이프</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>9,700원</t>
+          <t>1,100원</t>
         </is>
       </c>
       <c r="E50" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/2989405?itemId=13966447&amp;vendorItemId=3021354375</t>
+          <t>https://www.coupang.com//vp/products/206772714?itemId=610951981&amp;vendorItemId=79141010240</t>
         </is>
       </c>
     </row>
@@ -1476,17 +1467,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Every Case in Which the Victim of Sexual Assault Was At Fault: There are none Paperback</t>
+          <t>투힘 일석삼조 3in1 멀티 케이블(None LED)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>5,600원</t>
+          <t>12,820원</t>
         </is>
       </c>
       <c r="E51" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/5044362256?itemId=6793666285&amp;vendorItemId=74086378745</t>
+          <t>https://www.coupang.com//vp/products/130645662?itemId=384558474&amp;vendorItemId=82080151117</t>
         </is>
       </c>
     </row>
@@ -1496,17 +1487,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>The Story of the Little Mole Who Knew it was None of His Business 원서 &amp; 노부영 부록 CD</t>
+          <t>None Dare Call It Treason Book 6: Presiidential Words Deeds &amp; Blatant Lies! Paperback</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>11,050원</t>
+          <t>5,750원</t>
         </is>
       </c>
       <c r="E52" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/90783400?itemId=283016666&amp;vendorItemId=3031528240</t>
+          <t>https://www.coupang.com//vp/products/75085349?itemId=246919517&amp;vendorItemId=3605169011</t>
         </is>
       </c>
     </row>
@@ -1516,17 +1507,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>GIORDANO NC10 면반팔3팩(화이트+화이트+화이트) 3801</t>
+          <t>투힘 일석삼조 3in1 멀티 케이블(None LED)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>24,800원</t>
+          <t>12,820원</t>
         </is>
       </c>
       <c r="E53" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/6558985106?itemId=14675452740&amp;vendorItemId=81916784746</t>
+          <t>https://www.coupang.com//vp/products/130645662?itemId=384558470&amp;vendorItemId=82080151130</t>
         </is>
       </c>
     </row>
@@ -1536,17 +1527,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>더블제이디 NC12 해골 맨투맨 카키 해골 맨투맨 카키 JDZZ22903KH</t>
+          <t>NONE 후지필름 X-T3 XT2 카메라용 핫슈가 있는 퀵 릴리스 L 플레이트 우드 핸드 그립 브래킷</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>58,020원</t>
+          <t>40,230원</t>
         </is>
       </c>
       <c r="E54" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/6827709513?itemId=16200191778&amp;vendorItemId=83435296566</t>
+          <t>https://www.coupang.com//vp/products/6372727486?itemId=13505666324&amp;vendorItemId=83599845602</t>
         </is>
       </c>
     </row>
@@ -1556,17 +1547,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>더블제이디 NC12 구쯔와이드 팬츠 베이지 구쯔와이드 팬츠 베이지 JDHD80101</t>
+          <t>None Dare Call It Treason Book 17: The Supreme Court -- A Devastating Threat to National Security! Paperback</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>54,880원</t>
+          <t>5,130원</t>
         </is>
       </c>
       <c r="E55" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/6843166629?itemId=16278293489&amp;vendorItemId=83702700602</t>
+          <t>https://www.coupang.com//vp/products/64986109?itemId=219673008&amp;vendorItemId=3600455712</t>
         </is>
       </c>
     </row>
@@ -1574,24 +1565,19 @@
       <c r="A56" t="n">
         <v>55</v>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>닉스</t>
-        </is>
-      </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>닉스 여) DM톤 워싱 인밴딩 크롭 보이프렌드 NPSDDB501IBD</t>
+          <t>None for Me Thanks: A Journal of Cancer Recovery with Gratitude and a Feeding Tube Paperback</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>18,050원</t>
+          <t>7,100원</t>
         </is>
       </c>
       <c r="E56" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/6567791890?itemId=14731360389&amp;vendorItemId=81988266323</t>
+          <t>https://www.coupang.com//vp/products/1882602917?itemId=3199159977&amp;vendorItemId=71186552031</t>
         </is>
       </c>
     </row>
@@ -1601,17 +1587,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>And Then There Were None:</t>
+          <t>None Dare Call It Treason Book 12: Wholesale Treason During the Viietnam War! Paperback</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>7,000원</t>
+          <t>5,460원</t>
         </is>
       </c>
       <c r="E57" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/29719622?itemId=113547966&amp;vendorItemId=3136958294</t>
+          <t>https://www.coupang.com//vp/products/58924709?itemId=204040825&amp;vendorItemId=3582386714</t>
         </is>
       </c>
     </row>
@@ -1621,17 +1607,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>모텍스 또각이 라벨기 리필테이프</t>
+          <t>None Dare Call It Treason Book 4: America's Illustrious State Department! Its Machiavellian Misdeeds! ...</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1,100원</t>
+          <t>5,220원</t>
         </is>
       </c>
       <c r="E58" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/25231586?itemId=98060635&amp;vendorItemId=71398924674</t>
+          <t>https://www.coupang.com//vp/products/88907359?itemId=277933714&amp;vendorItemId=3619730320</t>
         </is>
       </c>
     </row>
@@ -1641,17 +1627,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>PAT NC08 여성 간절기 7부 라운드티셔츠 1I-65302-150</t>
+          <t>스칼렛또 [황인엽 착용] 1059 투링 이어링 이어커브</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>59,000원</t>
+          <t>9,000원</t>
         </is>
       </c>
       <c r="E59" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/6674208230?itemId=15365994293&amp;vendorItemId=83710270705</t>
+          <t>https://www.coupang.com//vp/products/4875273986?itemId=6341569803&amp;vendorItemId=82079363774</t>
         </is>
       </c>
     </row>
@@ -1659,19 +1645,24 @@
       <c r="A60" t="n">
         <v>59</v>
       </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>하루의시간</t>
+        </is>
+      </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>All for Me and None for All Paperback 2016년 04월 12일 출판</t>
+          <t>하루의시간 코케허니 G1 원두커피 스페셜티 200g</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>5,860원</t>
+          <t>14,000원</t>
         </is>
       </c>
       <c r="E60" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/61211203?itemId=209902200&amp;vendorItemId=3497802392</t>
+          <t>https://www.coupang.com//vp/products/6329571525?itemId=13229714379&amp;vendorItemId=80487821967</t>
         </is>
       </c>
     </row>
@@ -1681,17 +1672,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>올리비아로렌 NC11 메탈소재 7부 티셔츠 메탈믹스 소재 7부 간절기 티셔츠 VOCALXF7131</t>
+          <t>수스 DP03 샤샤 블라우스 S221NBL356IVFR</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>34,980원</t>
+          <t>36,000원</t>
         </is>
       </c>
       <c r="E61" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/6791270215?itemId=16000493361&amp;vendorItemId=83564598832</t>
+          <t>https://www.coupang.com//vp/products/6339696625?itemId=13294843618&amp;vendorItemId=80552238425</t>
         </is>
       </c>
     </row>
@@ -1701,17 +1692,17 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>올리비아로렌 SH02 리본넥 포인트 니트원피스 VOCBLWWB146</t>
+          <t>레노마 SH04 일반핏 긴팔셔츠 RMSSGP-801-BU NY-</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>43,310원</t>
+          <t>34,300원</t>
         </is>
       </c>
       <c r="E62" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/6834280018?itemId=16232882376&amp;vendorItemId=83427714799</t>
+          <t>https://www.coupang.com//vp/products/6317681082?itemId=13148690490&amp;vendorItemId=82817063802</t>
         </is>
       </c>
     </row>
@@ -1721,17 +1712,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>The Accidental Courier: None Paperback</t>
+          <t>[윙크핑크] 신사숙녀 여성 홈웨어 잠옷세트 라운지웨어 H039</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>9,530원</t>
+          <t>9,900원</t>
         </is>
       </c>
       <c r="E63" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/69814413?itemId=233747723&amp;vendorItemId=3600176328</t>
+          <t>https://www.coupang.com//vp/products/19181899?itemId=76960313&amp;vendorItemId=80241276224</t>
         </is>
       </c>
     </row>
@@ -1741,17 +1732,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>알토 SH01 뉴매직 슬림핏 팬츠(블랙) ALTS22WG5</t>
+          <t>맨즈 비비 크림 SPF30 PA++ 50g MdoC MANs BB CREAM</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>31,920원</t>
+          <t>27,300원</t>
         </is>
       </c>
       <c r="E64" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/6718004595?itemId=15617965392&amp;vendorItemId=83233203244</t>
+          <t>https://www.coupang.com//vp/products/6805090767?itemId=16079853619&amp;vendorItemId=83278417046</t>
         </is>
       </c>
     </row>
@@ -1761,17 +1752,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>None Dare Call Iit Treason Book 11: Treasonour Trade with and Aid to the Enemies of Freedom! Paperback</t>
+          <t>None Dare Call It Reason: How the Average American Has Hanged Himself Paperback</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>5,130원</t>
+          <t>9,500원</t>
         </is>
       </c>
       <c r="E65" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/58989702?itemId=204158095&amp;vendorItemId=3600991777</t>
+          <t>https://www.coupang.com//vp/products/67173195?itemId=225243144&amp;vendorItemId=3586873895</t>
         </is>
       </c>
     </row>
@@ -1781,17 +1772,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>모텍스 또각이 리필테이프 라벨기 이니셜테이프</t>
+          <t>Calvinism: None Dare Call It Heresy Paperback</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1,100원</t>
+          <t>9,190원</t>
         </is>
       </c>
       <c r="E66" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/206772714?itemId=610951981&amp;vendorItemId=79141010240</t>
+          <t>https://www.coupang.com//vp/products/85845633?itemId=271176289&amp;vendorItemId=3656420345</t>
         </is>
       </c>
     </row>
@@ -1801,17 +1792,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>None Dare Call It Treason Book 6: Presiidential Words Deeds &amp; Blatant Lies! Paperback</t>
+          <t>Our Differences: "None of them is right neither is any wrong: Just a matter of positioning Paperback</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>5,750원</t>
+          <t>6,100원</t>
         </is>
       </c>
       <c r="E67" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/75085349?itemId=246919517&amp;vendorItemId=3605169011</t>
+          <t>https://www.coupang.com//vp/products/1876306307?itemId=3188479962&amp;vendorItemId=71175922753</t>
         </is>
       </c>
     </row>
@@ -1821,17 +1812,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>스칼렛또 [황인엽 착용] 1059 투링 이어링 이어커브</t>
+          <t>NBA NC08 오버핏 체커보드 하프 원피스 엔비에이 여성 롱 티셔츠 맨투맨 루즈핏 N223TS702P</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>9,000원</t>
+          <t>62,300원</t>
         </is>
       </c>
       <c r="E68" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/4875273986?itemId=6341569803&amp;vendorItemId=82079363774</t>
+          <t>https://www.coupang.com//vp/products/6822483074?itemId=16174994609&amp;vendorItemId=83370463911</t>
         </is>
       </c>
     </row>
@@ -1841,17 +1832,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>투힘 일석삼조 3in1 멀티 케이블(None LED)</t>
+          <t>넷피엑스 PVC 벨크로 태극기 패치 야광</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>12,820원</t>
+          <t>5,500원</t>
         </is>
       </c>
       <c r="E69" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/130645662?itemId=384558474&amp;vendorItemId=82080151117</t>
+          <t>https://www.coupang.com//vp/products/162765117?itemId=467456705&amp;vendorItemId=4165858433</t>
         </is>
       </c>
     </row>
@@ -1861,17 +1852,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>LAP NC12 싱글 카브라 박스티 AM2CT545 AM2CT545</t>
+          <t>None Dare Call It Treason Book 12: Wholesale Treason During the Viietnam War! Paperback</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>20,300원</t>
+          <t>5,460원</t>
         </is>
       </c>
       <c r="E70" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/6480397918?itemId=14183915150&amp;vendorItemId=81740696477</t>
+          <t>https://www.coupang.com//vp/products/58924709?itemId=204040825&amp;vendorItemId=3582386714</t>
         </is>
       </c>
     </row>
@@ -1879,19 +1870,24 @@
       <c r="A71" t="n">
         <v>70</v>
       </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>언더컨트롤</t>
+        </is>
+      </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>[CD] Birdie Busch - The Ways We Try</t>
+          <t>DIDONE / AUTHENTIC B B / PINK CHECK</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>16,000원</t>
+          <t>25,200원</t>
         </is>
       </c>
       <c r="E71" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/346656971?itemId=1100337766&amp;vendorItemId=5627308182</t>
+          <t>https://www.coupang.com//vp/products/5018620292?itemId=6727009023&amp;vendorItemId=76497223236</t>
         </is>
       </c>
     </row>
@@ -1901,17 +1897,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>방수 라텍스커버 매트리스커버 라텍스형 퀸 15cm</t>
+          <t>101 Situations in Which a Woman Is Obligated to Have Sex: Spoiler Alert: There are none Paperback</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>19,400원</t>
+          <t>5,400원</t>
         </is>
       </c>
       <c r="E72" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/6058933944?itemId=11132190755&amp;vendorItemId=78410736304</t>
+          <t>https://www.coupang.com//vp/products/5004512287?itemId=6692128329&amp;vendorItemId=73985781212</t>
         </is>
       </c>
     </row>
@@ -1919,24 +1915,19 @@
       <c r="A73" t="n">
         <v>72</v>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>언더컨트롤</t>
-        </is>
-      </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>ROUND LOGO / AUTHENTIC B B / CATION DESERT</t>
+          <t>Chocolate Usa - Smoke Machine 미국수입반</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>22,680원</t>
+          <t>6,040원</t>
         </is>
       </c>
       <c r="E73" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/5547494321?itemId=8755285907&amp;vendorItemId=76496393634</t>
+          <t>https://www.coupang.com//vp/products/115104860?itemId=345037324&amp;vendorItemId=3843668176</t>
         </is>
       </c>
     </row>
@@ -1946,17 +1937,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>None Dare Call It Reason: How the Average American Has Hanged Himself Paperback</t>
+          <t>Dj Spooky - Subliminal Minded 미국수입반</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>9,500원</t>
+          <t>3,360원</t>
         </is>
       </c>
       <c r="E74" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/67173195?itemId=225243144&amp;vendorItemId=3586873895</t>
+          <t>https://www.coupang.com//vp/products/121776211?itemId=361944871&amp;vendorItemId=3880278212</t>
         </is>
       </c>
     </row>
@@ -1966,17 +1957,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>GIORDANO NC10 면반팔3팩(화이트+화이트+화이트) 3801</t>
+          <t>SKIN79 인텐스 클래식 밤 SPF35 PA++ 43.5g</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>24,800원</t>
+          <t>18,600원</t>
         </is>
       </c>
       <c r="E75" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/6558985106?itemId=14675452740&amp;vendorItemId=81916784746</t>
+          <t>https://www.coupang.com//vp/products/6805099234?itemId=16079906452&amp;vendorItemId=83278456288</t>
         </is>
       </c>
     </row>
@@ -1984,24 +1975,19 @@
       <c r="A76" t="n">
         <v>75</v>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>언더컨트롤</t>
-        </is>
-      </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>BEANIE / AERO FIT / L MUSTARD</t>
+          <t>TBJ SH01 이너용 면 반팔티 3PACK T205TS900/00</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>21,420원</t>
+          <t>9,790원</t>
         </is>
       </c>
       <c r="E76" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/5018618235?itemId=6727004819&amp;vendorItemId=76497221615</t>
+          <t>https://www.coupang.com//vp/products/6409118716?itemId=13736548517&amp;vendorItemId=81072733031</t>
         </is>
       </c>
     </row>
@@ -2011,17 +1997,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>None Dare Call It Treason Book 17: The Supreme Court -- A Devastating Threat to National Security! Paperback</t>
+          <t>마이크로소프트프트 서피스 프로 3개 펜 팁 연필 펜촉 교체 키트</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>5,130원</t>
+          <t>21,300원</t>
         </is>
       </c>
       <c r="E77" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/64986109?itemId=219673008&amp;vendorItemId=3600455712</t>
+          <t>https://www.coupang.com//vp/products/6745977602?itemId=15761897864&amp;vendorItemId=82975336840</t>
         </is>
       </c>
     </row>
@@ -2031,17 +2017,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>[넷피엑스] [오라이트] I3T 180루멘 EDC LD 플래시라이트 (블랙)</t>
+          <t>Royalways 삼성 TV 리모컨 4K UHD BN59-01259B BN59-01260A BN59-01292A BN59-01259D 용 범용 원격 교체</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>28,900원</t>
+          <t>10,160원</t>
         </is>
       </c>
       <c r="E78" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/231132224?itemId=732823919&amp;vendorItemId=82860940420</t>
+          <t>https://www.coupang.com//vp/products/1773621939?itemId=3019854818&amp;vendorItemId=71008009227</t>
         </is>
       </c>
     </row>
@@ -2051,17 +2037,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>애니바디 NC06 남성 인견 니트 트렁크 ANPK22504</t>
+          <t>포켓몬 피카츄 아동 실리콘 손목시계 어린이 만화 액션 장난감 생일 선물</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>5,790원</t>
+          <t>12,000원</t>
         </is>
       </c>
       <c r="E79" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/6609319184?itemId=14980066151&amp;vendorItemId=82686019481</t>
+          <t>https://www.coupang.com//vp/products/6702820621?itemId=15531519853&amp;vendorItemId=82750721192</t>
         </is>
       </c>
     </row>
@@ -2071,17 +2057,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>ORIGINAL SMALL LOGO 2PACK-NONE</t>
+          <t>It's None of Your Business Paperback</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>28,900원</t>
+          <t>11,800원</t>
         </is>
       </c>
       <c r="E80" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/6504201753?itemId=14335126135&amp;vendorItemId=81579702191</t>
+          <t>https://www.coupang.com//vp/products/2198765912?itemId=3740442618&amp;vendorItemId=71725606802</t>
         </is>
       </c>
     </row>
@@ -2091,17 +2077,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Chocolate Usa - Smoke Machine 미국수입반</t>
+          <t>DR.ALTHEA 디어에이(Dear.A) 퍼펙트 커버 컨실러 팔레트 Dear.A PERFECT COVER CONCEALER PALETTE</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>6,040원</t>
+          <t>23,600원</t>
         </is>
       </c>
       <c r="E81" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/115104860?itemId=345037324&amp;vendorItemId=3843668176</t>
+          <t>https://www.coupang.com//vp/products/6805114527?itemId=16079999496&amp;vendorItemId=83278528273</t>
         </is>
       </c>
     </row>
@@ -2109,19 +2095,24 @@
       <c r="A82" t="n">
         <v>81</v>
       </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>언더컨트롤</t>
+        </is>
+      </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>짜라투스트라는 이렇게 말했다 : Thus Spake Zarathustra - A Book for All and None (영문판)</t>
+          <t>ROUND LOGO / AUTHENTIC B B / CATION DESERT</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>15,200원</t>
+          <t>25,200원</t>
         </is>
       </c>
       <c r="E82" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/83473342?itemId=264837974&amp;vendorItemId=3642332715</t>
+          <t>https://www.coupang.com//vp/products/5547494321?itemId=8755285907&amp;vendorItemId=76496393634</t>
         </is>
       </c>
     </row>
@@ -2131,17 +2122,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>TBJ SH01 이너용 면 반팔티 3PACK T205TS900/00</t>
+          <t>None Dare Call It Treason Book 7: Subversives Close to Our Presidents! Paperback</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>9,790원</t>
+          <t>5,130원</t>
         </is>
       </c>
       <c r="E83" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/6409118716?itemId=13736548517&amp;vendorItemId=81072733031</t>
+          <t>https://www.coupang.com//vp/products/75617832?itemId=247525648&amp;vendorItemId=3605614039</t>
         </is>
       </c>
     </row>
@@ -2151,17 +2142,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>None Dare Call It Treason Book 12: Wholesale Treason During the Viietnam War! Paperback</t>
+          <t>[CD] Hello Radio</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>5,460원</t>
+          <t>16,000원</t>
         </is>
       </c>
       <c r="E84" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/58924709?itemId=204040825&amp;vendorItemId=3582386714</t>
+          <t>https://www.coupang.com//vp/products/346653948?itemId=1100323986&amp;vendorItemId=5627287644</t>
         </is>
       </c>
     </row>
@@ -2171,17 +2162,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>101 Situations in Which a Woman Is Obligated to Have Sex: Spoiler Alert: There are none Paperback</t>
+          <t>Kate Jacobs - Hydrangea 미국수입반</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>5,400원</t>
+          <t>6,040원</t>
         </is>
       </c>
       <c r="E85" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/5004512287?itemId=6692128329&amp;vendorItemId=73985781212</t>
+          <t>https://www.coupang.com//vp/products/113145814?itemId=339899347&amp;vendorItemId=3834261728</t>
         </is>
       </c>
     </row>
@@ -2191,17 +2182,17 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>신디 SH02 라글란 반팔 티셔츠 CDRP22S03</t>
+          <t>The Blue Barn: None Paperback</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>13,900원</t>
+          <t>12,710원</t>
         </is>
       </c>
       <c r="E86" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/6321963465?itemId=13180427011&amp;vendorItemId=80439813514</t>
+          <t>https://www.coupang.com//vp/products/67998876?itemId=227105306&amp;vendorItemId=3586997295</t>
         </is>
       </c>
     </row>
@@ -2211,17 +2202,17 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Dj Spooky - Subliminal Minded 미국수입반</t>
+          <t>스칼렛또 [황인엽 착용][써지컬스틸] 1057 베이직18mm 원형 피어싱귀걸이</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>3,360원</t>
+          <t>11,000원</t>
         </is>
       </c>
       <c r="E87" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/121776211?itemId=361944871&amp;vendorItemId=3880278212</t>
+          <t>https://www.coupang.com//vp/products/4875275127?itemId=6341573105&amp;vendorItemId=82079363319</t>
         </is>
       </c>
     </row>
@@ -2229,19 +2220,24 @@
       <c r="A88" t="n">
         <v>87</v>
       </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>언더컨트롤</t>
+        </is>
+      </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>NONE 1/4 범용 V 마운트 배터리 퀵 릴리스 플레이트 어댑터 액세서리 모든 Ptz 및 카메라용 휴대용 단일 베이스 블랙</t>
+          <t>BEANIE / AERO FIT / L MUSTARD</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>16,380원</t>
+          <t>23,800원</t>
         </is>
       </c>
       <c r="E88" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/6372492260?itemId=13504261422&amp;vendorItemId=80871468345</t>
+          <t>https://www.coupang.com//vp/products/5018618235?itemId=6727004819&amp;vendorItemId=76497221615</t>
         </is>
       </c>
     </row>
@@ -2251,17 +2247,17 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>스칼렛또 [황인엽 착용][써지컬스틸] 1057 베이직18mm 원형 피어싱귀걸이</t>
+          <t>[가방팝] 옐로우스톤 숄더백 블랙 YS2080BK</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>11,000원</t>
+          <t>27,300원</t>
         </is>
       </c>
       <c r="E89" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/4875275127?itemId=6341573105&amp;vendorItemId=82079363319</t>
+          <t>https://www.coupang.com//vp/products/6713667349?itemId=15594775287&amp;vendorItemId=82813602304</t>
         </is>
       </c>
     </row>
@@ -2271,17 +2267,17 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>SKIN79 인텐스 클래식 밤 SPF35 PA++ 43.5g</t>
+          <t>[CD] Burnside Project - The Finest Example Is You</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>18,000원</t>
+          <t>16,000원</t>
         </is>
       </c>
       <c r="E90" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/6805099234?itemId=16079906452&amp;vendorItemId=83278456288</t>
+          <t>https://www.coupang.com//vp/products/346659651?itemId=1100343448&amp;vendorItemId=5627323103</t>
         </is>
       </c>
     </row>
@@ -2291,17 +2287,17 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>[가방팝] 베테제 Half Backpack (khaki) 하프 스트링 백팩</t>
+          <t>투힘 일석삼조 3in1 멀티 케이블(None LED)</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>35,000원</t>
+          <t>12,820원</t>
         </is>
       </c>
       <c r="E91" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/6713610994?itemId=15594545044&amp;vendorItemId=82813379201</t>
+          <t>https://www.coupang.com//vp/products/130645662?itemId=384558470&amp;vendorItemId=82080151130</t>
         </is>
       </c>
     </row>
@@ -2311,17 +2307,17 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>DR.ALTHEA 디어에이(Dear.A) 퍼펙트 커버 컨실러 팔레트 Dear.A PERFECT COVER CONCEALER PALETTE</t>
+          <t>Calvinism: None Dare Call It Heresy Paperback</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>23,600원</t>
+          <t>9,190원</t>
         </is>
       </c>
       <c r="E92" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/6805114527?itemId=16079999496&amp;vendorItemId=83278528273</t>
+          <t>https://www.coupang.com//vp/products/85845633?itemId=271176289&amp;vendorItemId=3656420345</t>
         </is>
       </c>
     </row>
@@ -2329,24 +2325,19 @@
       <c r="A93" t="n">
         <v>92</v>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>리끌로우</t>
-        </is>
-      </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>RECLOW B019 HOPI GLASS</t>
+          <t>[2SET] 944 블랙하트 두줄레이어드 목걸이</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>24,650원</t>
+          <t>11,900원</t>
         </is>
       </c>
       <c r="E93" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/5924225037?itemId=10509012699&amp;vendorItemId=81604955204</t>
+          <t>https://www.coupang.com//vp/products/4610343590?itemId=5697762530&amp;vendorItemId=82079408393</t>
         </is>
       </c>
     </row>
@@ -2356,17 +2347,17 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>버커루 NC10 유니 16수 래글런 R넥12 유니 16수 래글런 R넥12 B195TS120P</t>
+          <t>[CD] Oppenheimer - Oppenheimer</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>18,620원</t>
+          <t>16,000원</t>
         </is>
       </c>
       <c r="E94" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/6754778169?itemId=15810309809&amp;vendorItemId=83069296535</t>
+          <t>https://www.coupang.com//vp/products/346659570?itemId=1100343217&amp;vendorItemId=5627322776</t>
         </is>
       </c>
     </row>
@@ -2376,17 +2367,17 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>가방팝 언더크로스 핸드 스트랩 키링 옐로우 열쇠고리</t>
+          <t>Plus One Plus None Paperback</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>6,920원</t>
+          <t>9,100원</t>
         </is>
       </c>
       <c r="E95" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/180951649?itemId=517944650&amp;vendorItemId=83002193001</t>
+          <t>https://www.coupang.com//vp/products/2103161261?itemId=3572946153&amp;vendorItemId=71558782883</t>
         </is>
       </c>
     </row>
@@ -2396,17 +2387,17 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>[CD] Burnside Project - The Finest Example Is You</t>
+          <t>[가방팝] 에이지그레이 AI07FNY 네이비 여행용파우치 크로스백</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>16,000원</t>
+          <t>14,000원</t>
         </is>
       </c>
       <c r="E96" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/346659651?itemId=1100343448&amp;vendorItemId=5627323103</t>
+          <t>https://www.coupang.com//vp/products/6713680997?itemId=15594822413&amp;vendorItemId=82813648785</t>
         </is>
       </c>
     </row>
@@ -2416,17 +2407,17 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>None Dare Call It Treason Book 7: Subversives Close to Our Presidents! Paperback</t>
+          <t>[가방팝] 오알오알카드지갑 ORBAG5-SKY</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>5,130원</t>
+          <t>19,500원</t>
         </is>
       </c>
       <c r="E97" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/75617832?itemId=247525648&amp;vendorItemId=3605614039</t>
+          <t>https://www.coupang.com//vp/products/6713599163?itemId=15594493255&amp;vendorItemId=82813329718</t>
         </is>
       </c>
     </row>
@@ -2436,17 +2427,17 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Kate Jacobs - Hydrangea 미국수입반</t>
+          <t>수스 DP03 샤샤 블라우스 S221NBL356IVFR</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>6,040원</t>
+          <t>36,000원</t>
         </is>
       </c>
       <c r="E98" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/113145814?itemId=339899347&amp;vendorItemId=3834261728</t>
+          <t>https://www.coupang.com//vp/products/6339696625?itemId=13294843618&amp;vendorItemId=80552238425</t>
         </is>
       </c>
     </row>
@@ -2456,17 +2447,17 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>UNDERCONTROL STUDIO BREAD BERET / BUBBLE SEERSUCKER / BEIGE</t>
+          <t>파크랜드 NC15 마이크로 프린트 카라 티셔츠 ATL21321</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>43,400원</t>
+          <t>93,700원</t>
         </is>
       </c>
       <c r="E99" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/6806221645?itemId=16087164070&amp;vendorItemId=83285005014</t>
+          <t>https://www.coupang.com//vp/products/6063009170?itemId=11158019745&amp;vendorItemId=78660542295</t>
         </is>
       </c>
     </row>
@@ -2476,17 +2467,17 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>[CD] Hello Radio</t>
+          <t>LUOES 비건 톤업크림 Vegan Tone Up Cream</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>16,000원</t>
+          <t>39,400원</t>
         </is>
       </c>
       <c r="E100" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/346653948?itemId=1100323986&amp;vendorItemId=5627287644</t>
+          <t>https://www.coupang.com//vp/products/6805117233?itemId=16080015426&amp;vendorItemId=83278536890</t>
         </is>
       </c>
     </row>
@@ -2494,24 +2485,19 @@
       <c r="A101" t="n">
         <v>100</v>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>피스메이커</t>
-        </is>
-      </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>[EZwithPIECE] DAISY BLEND MUFFLER (BLACK)</t>
+          <t>[2SET] 1013 볼+진주귀걸이</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>25,900원</t>
+          <t>7,000원</t>
         </is>
       </c>
       <c r="E101" s="1" t="inlineStr">
         <is>
-          <t>https://www.coupang.com//vp/products/6356884135?itemId=13401597018&amp;vendorItemId=81553836026</t>
+          <t>https://www.coupang.com//vp/products/4657220456?itemId=5812528605&amp;vendorItemId=82079402038</t>
         </is>
       </c>
     </row>
